--- a/tutorial/supply/tests/supplier_excel_data/钢丝绳数据表.xlsx
+++ b/tutorial/supply/tests/supplier_excel_data/钢丝绳数据表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengzhenbo/Library/Mobile Documents/com~apple~CloudDocs/04Project/ElevatorCertificate/ElevatorCertificate/tutorial/supply/tests/supplier_excel_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feng.tingting\Desktop\新建文件夹\supplier_excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF1D9F7-1557-2A41-929B-F72B312E68AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39940" yWindow="6640" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39945" yWindow="6645" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>合同号</t>
   </si>
@@ -57,51 +56,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>XZPBK0930019145</t>
-  </si>
-  <si>
     <t>8 8×19S-NFC 1570/1770 U</t>
   </si>
   <si>
-    <t>XZPBK0930019147</t>
-  </si>
-  <si>
-    <t>XZ22193358</t>
-  </si>
-  <si>
-    <t>XZ23050284</t>
-  </si>
-  <si>
-    <t>XZ21010023</t>
-  </si>
-  <si>
-    <t>XZ23050283</t>
-  </si>
-  <si>
-    <t>XZPBA0212031017</t>
-  </si>
-  <si>
-    <t>XZ21130531</t>
-  </si>
-  <si>
-    <t>10 8×19S-NFC 1370/1770 U sZ</t>
-  </si>
-  <si>
-    <t>XZ21130532</t>
-  </si>
-  <si>
-    <t>XZ23290189</t>
-  </si>
-  <si>
-    <t>XZ22110674</t>
-  </si>
-  <si>
-    <t>XZ22110673</t>
-  </si>
-  <si>
-    <t>XZ22110672</t>
-  </si>
-  <si>
     <t>神王</t>
   </si>
   <si>
@@ -117,26 +74,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>钢丝绳规格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>规格型号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>钢丝绳规格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>直径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格型号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>对应检测报告</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -150,17 +103,25 @@
   </si>
   <si>
     <t>数值（单位米）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XZ22230535</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Φ8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-804]aaa;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,8 +277,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 10 3" xfId="2"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -628,28 +589,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
     <col min="3" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="17.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="17.125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="2" spans="2:10" ht="30" customHeight="1">
+    <row r="1" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
@@ -662,7 +623,7 @@
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="2:10" ht="8.25" customHeight="1">
+    <row r="3" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -673,13 +634,13 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="2:10" ht="24" customHeight="1">
+    <row r="4" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="6" t="s">
@@ -690,8 +651,8 @@
         <v>45106.34474537037</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="3" customHeight="1"/>
-    <row r="6" spans="2:10" ht="18" customHeight="1">
+    <row r="5" spans="2:10" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -699,403 +660,187 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="9">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="J7" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="9">
-        <v>8</v>
-      </c>
-      <c r="J8" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="8">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="9">
-        <v>8</v>
-      </c>
-      <c r="J9" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="8">
-        <v>4</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="9">
-        <v>8</v>
-      </c>
-      <c r="J10" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="8">
-        <v>5</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="9">
-        <v>8</v>
-      </c>
-      <c r="J11" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="8">
-        <v>6</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="9">
-        <v>8</v>
-      </c>
-      <c r="J12" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="8">
-        <v>7</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="9">
-        <v>8</v>
-      </c>
-      <c r="J13" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="8">
-        <v>8</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="9">
-        <v>8</v>
-      </c>
-      <c r="J14" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="8">
-        <v>9</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="9">
-        <v>8</v>
-      </c>
-      <c r="J15" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="8">
-        <v>10</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="9">
-        <v>8</v>
-      </c>
-      <c r="J16" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="8">
-        <v>11</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="9">
-        <v>8</v>
-      </c>
-      <c r="J17" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="8">
-        <v>12</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="9">
-        <v>8</v>
-      </c>
-      <c r="J18" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="8">
-        <v>13</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="9">
-        <v>8</v>
-      </c>
-      <c r="J19" s="8">
-        <v>7</v>
-      </c>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" selectLockedCells="1" autoFilter="0" pivotTables="0"/>
